--- a/gui/dft_fsb.xlsx
+++ b/gui/dft_fsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ömer\Desktop\5LIU0\Project\GIT\5LIU0_Project\gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503B5216-31BE-4238-8501-5922F0791DB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC9E315-D890-4E5C-8E11-614F6D46C36B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{442F9931-C7C5-4BBB-8FD0-6794AD31212C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="534">
   <si>
     <t>n</t>
   </si>
@@ -1635,6 +1635,9 @@
   </si>
   <si>
     <t>FSB</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -1711,13 +1714,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1725,9 +1742,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FFT synthisized</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Build-in Excel FFT </a:t>
             </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1743,13 +1765,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3349,7 +3385,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4BEE-416A-BD7A-58F9C032CAE7}"/>
+              <c16:uniqueId val="{00000000-1BB9-439B-9972-25ACF3C977C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3361,11 +3397,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1929945375"/>
-        <c:axId val="1929950367"/>
+        <c:axId val="1944037983"/>
+        <c:axId val="1944047135"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1929945375"/>
+        <c:axId val="1944037983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3406,7 +3442,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Hz</a:t>
+                  <a:t>Frequency [Hz]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3477,13 +3513,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1929950367"/>
+        <c:crossAx val="1944047135"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="400"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1929950367"/>
+        <c:axId val="1944047135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3595,7 +3630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1929945375"/>
+        <c:crossAx val="1944037983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12011,42 +12046,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC93EE0-8265-47A7-A3BD-981775498A4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -12074,7 +12073,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12089,6 +12088,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>599514</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121ACA6D-96D5-4850-AA19-4DC65E01B402}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12175,16 +12210,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168727</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>159202</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12509,10 +12544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF459A4-3ED6-44EB-B219-C10394F9318C}">
-  <dimension ref="A1:L513"/>
+  <dimension ref="A1:AD513"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D513"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12521,7 +12556,7 @@
     <col min="10" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12552,8 +12587,14 @@
       <c r="L1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12568,7 +12609,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <f>$L$3+$L$5*(A2-$L$1)</f>
+        <f>B2</f>
         <v>0</v>
       </c>
       <c r="F2">
@@ -12588,8 +12629,14 @@
         <f>$I$3</f>
         <v>512</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12625,7 +12672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -12656,7 +12703,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -12694,7 +12741,7 @@
         <v>9.765625</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -12718,7 +12765,7 @@
         <v>0.56976071699402187</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -12742,7 +12789,7 @@
         <v>0.56993531122849594</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -12769,7 +12816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -12793,7 +12840,7 @@
         <v>0.57040143569499313</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -12817,7 +12864,7 @@
         <v>0.57069316293539007</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -12841,7 +12888,7 @@
         <v>0.57102415935951389</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -12865,7 +12912,7 @@
         <v>0.57139456542681533</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -12889,7 +12936,7 @@
         <v>0.57180453864170466</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -12913,7 +12960,7 @@
         <v>0.57225425372798033</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -12937,7 +12984,7 @@
         <v>0.57274390282609289</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -12961,7 +13008,7 @@
         <v>0.57327369570754916</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -12985,7 +13032,7 @@
         <v>0.57384386001179155</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -13009,7 +13056,7 @@
         <v>0.57445464150518466</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -13033,7 +13080,7 @@
         <v>0.57510630435949572</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -13057,7 +13104,7 @@
         <v>0.57579913145295591</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -13081,7 +13128,7 @@
         <v>0.57653342469863278</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -13105,7 +13152,7 @@
         <v>0.57730950539033588</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -13129,7 +13176,7 @@
         <v>0.57812771457727574</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -13153,7 +13200,7 @@
         <v>0.57898841346239638</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -13177,7 +13224,7 @@
         <v>0.57989198382732865</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -13201,7 +13248,7 @@
         <v>0.58083882848588508</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -13225,7 +13272,7 @@
         <v>0.58182937176370286</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -13249,7 +13296,7 @@
         <v>0.5828640600075462</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -13272,8 +13319,14 @@
         <f t="shared" si="1"/>
         <v>0.58394336212807096</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>533</v>
+      </c>
+      <c r="O29" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -13297,7 +13350,7 @@
         <v>0.58506777016997968</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -13321,7 +13374,7 @@
         <v>0.5862377999191023</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -24896,7 +24949,7 @@
   <dimension ref="A1:J258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B1" sqref="B1:C258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29842,8 +29895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8873574-C2CE-4FF7-9AF0-79E3CE85D7F7}">
   <dimension ref="A1:F503"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
